--- a/biology/Zoologie/Aravani/Aravani.xlsx
+++ b/biology/Zoologie/Aravani/Aravani.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ambleur macédonien
 L’Aravani (ambleur, en langage populaire), plus récemment caractérisé sous le nom d′Ambleur macédonien, est un type de chevaux au statut controversé, originaire de Grèce. 
@@ -513,10 +525,12 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La base de données DAD-IS référence cette race sous le nom d'« Arravani »[1], et CAB International sous celui d'« Aravani »[2]. Le nom « Aravani » définit l'amble[3], qui n'est pas propre à cette population de chevaux, mais se retrouve chez d'autres chevaux grecs tels que le Crétois et le Pénée[2]. Le nom « Aravani » désigne aussi des chevaux d'allure grecs élevés principalement dans les régions de Siátista et Pella, dans l'Ouest de la Macédoine.
-Plus récemment, en 2018, la dénomination Macedonian Pacer (en français : Ambleur macédonien) a été proposée pour mieux caractériser cette race[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La base de données DAD-IS référence cette race sous le nom d'« Arravani », et CAB International sous celui d'« Aravani ». Le nom « Aravani » définit l'amble, qui n'est pas propre à cette population de chevaux, mais se retrouve chez d'autres chevaux grecs tels que le Crétois et le Pénée. Le nom « Aravani » désigne aussi des chevaux d'allure grecs élevés principalement dans les régions de Siátista et Pella, dans l'Ouest de la Macédoine.
+Plus récemment, en 2018, la dénomination Macedonian Pacer (en français : Ambleur macédonien) a été proposée pour mieux caractériser cette race.
 </t>
         </is>
       </c>
@@ -545,9 +559,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le statut de cette race est discuté, ces animaux formant peut-être une race locale standardisée à partir d'animaux indigènes ou d'une sélection effectuée sur place[5]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le statut de cette race est discuté, ces animaux formant peut-être une race locale standardisée à partir d'animaux indigènes ou d'une sélection effectuée sur place. 
 Au cours de la Seconde Guerre mondiale, la demande de chevaux cesse du fait de la motorisation. L'Aravani est sur le point de s'éteindre quand il devient inutile sur les exploitations agricoles. De nombreux sujets sont vendus à bas prix en Italie, où ils sont abattus pour la production de viande.
 </t>
         </is>
@@ -577,9 +593,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'Aravani a une apparence uniforme[5]. Son corps s'inscrit dans un carré, avec de longues jambes, un dos et une encolure courts. Sa taille peut varier considérablement, de 1,30 à 1,50 m[5],[2], mais la hauteur moyenne est de 1,30 à 1,45 m. Ces chevaux peuvent avoir toutes les couleurs de robe franches, mais ils sont généralement gris, rouans, noirs ou bais ; rarement alezans ou isabelle, voire crème. Les crins sont épais et les fanons assez longs. Ils ont souvent une superbe crinière et une queue très fournie en crins, mais cette queue est souvent coupée. Il existe de deux types, le type à encolure légère, plus rapide, et le type baroque, qui croisé avec des juments de type demi-sang de selle donne un cheval qui ressemble au Pure race espagnole. Ces chevaux sont robustes et ont un tempérament vif mais obéissant.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Aravani a une apparence uniforme. Son corps s'inscrit dans un carré, avec de longues jambes, un dos et une encolure courts. Sa taille peut varier considérablement, de 1,30 à 1,50 m mais la hauteur moyenne est de 1,30 à 1,45 m. Ces chevaux peuvent avoir toutes les couleurs de robe franches, mais ils sont généralement gris, rouans, noirs ou bais ; rarement alezans ou isabelle, voire crème. Les crins sont épais et les fanons assez longs. Ils ont souvent une superbe crinière et une queue très fournie en crins, mais cette queue est souvent coupée. Il existe de deux types, le type à encolure légère, plus rapide, et le type baroque, qui croisé avec des juments de type demi-sang de selle donne un cheval qui ressemble au Pure race espagnole. Ces chevaux sont robustes et ont un tempérament vif mais obéissant.
 Le milieu naturel a donné à ces chevaux une grande endurance. Les étalons protègent leurs juments contre les inconnus.
 </t>
         </is>
@@ -609,7 +627,9 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Beaucoup d'Aravani sont utilisés pour la traction. Malgré leur petite taille, ils peuvent tirer de lourdes charges sur des terres rocheuses et montagneuses. 
 </t>
@@ -640,9 +660,11 @@
           <t>Diffusion de l'élevage</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La race est propre à la Macédoine-Occidentale[6], mais n'est pas officiellement reconnue en Grèce[2]. Le cheptel est constitué d'environ 300 têtes[6]. L'Aravani a été exporté en Allemagne[1] et en Autriche[5]. Le stud-book allemand s'est constitué à partir de 60 sujets[5]. L'Allemagne compte seulement 2 étalons approuvés. Environ 100 chevaux de race pure y sont élevés depuis 2000. Ces animaux sont désormais protégés par les éleveurs grecs et les Haras Helléniques.
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La race est propre à la Macédoine-Occidentale, mais n'est pas officiellement reconnue en Grèce. Le cheptel est constitué d'environ 300 têtes. L'Aravani a été exporté en Allemagne et en Autriche. Le stud-book allemand s'est constitué à partir de 60 sujets. L'Allemagne compte seulement 2 étalons approuvés. Environ 100 chevaux de race pure y sont élevés depuis 2000. Ces animaux sont désormais protégés par les éleveurs grecs et les Haras Helléniques.
 </t>
         </is>
       </c>
